--- a/apifile/camera.xlsx
+++ b/apifile/camera.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APITest\apifile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82791294-6F4F-4FCE-982A-138D2FCE8149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64376FEA-6C2E-4B46-BFD0-0B3F659051D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6165" yWindow="1650" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,59 +71,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>deviceId=720596513148514304&amp;controlType=right&amp;speed=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>摄像头控制-右转</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId=720596513148514304&amp;controlType=left&amp;speed=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId=720596513148514304&amp;controlType=up&amp;speed=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId=720596513148514304&amp;controlType=down&amp;speed=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId=720596513148514304&amp;controlType=upperLeft&amp;speed=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId=720596513148514304&amp;controlType=lowerLeft&amp;speed=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId=720596513148514304&amp;controlType=upperRight&amp;speed=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId=720596513148514304&amp;controlType=lowerRight&amp;speed=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId=720596513148514304&amp;controlType=magnify&amp;speed=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId=720596513148514304&amp;controlType=narrow&amp;speed=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId=720596513148514304&amp;controlType=nearly&amp;speed=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId=720596513148514304&amp;controlType=far&amp;speed=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId=720596513148514304&amp;controlType=stop&amp;speed=1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -173,25 +121,64 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>九宫格添加显示的摄像头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取摄像头九宫格配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceId=720586611470512128&amp;controlType=right&amp;speed=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceId=720586611470512128&amp;controlType=left&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=720586611470512128&amp;controlType=up&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=720586611470512128&amp;controlType=down&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=720586611470512128&amp;controlType=upperLeft&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=720586611470512128&amp;controlType=lowerLeft&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=720586611470512128&amp;controlType=upperRight&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=720586611470512128&amp;controlType=lowerRight&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=720586611470512128&amp;controlType=magnify&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=720586611470512128&amp;controlType=narrow&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=720586611470512128&amp;controlType=nearly&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=720586611470512128&amp;controlType=far&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=720586611470512128&amp;controlType=stop&amp;speed=1</t>
+  </si>
+  <si>
     <t>{
 	"gridMap": {
-		"0": "720596513148514304",
+		"0": "720586611470512128",
 		"1": "737377184941576192"
 	}
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>九宫格添加显示的摄像头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取摄像头九宫格配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -556,7 +543,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -608,10 +595,10 @@
         <v>200</v>
       </c>
       <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -628,10 +615,10 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -648,10 +635,10 @@
         <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -668,10 +655,10 @@
         <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -688,7 +675,7 @@
         <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -705,7 +692,7 @@
         <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -722,7 +709,7 @@
         <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -739,7 +726,7 @@
         <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -756,10 +743,10 @@
         <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -776,10 +763,10 @@
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -796,10 +783,10 @@
         <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -816,10 +803,10 @@
         <v>200</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -836,18 +823,18 @@
         <v>200</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
@@ -856,18 +843,18 @@
         <v>200</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>8</v>
@@ -876,15 +863,15 @@
         <v>200</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
@@ -893,7 +880,7 @@
         <v>200</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/apifile/camera.xlsx
+++ b/apifile/camera.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APITest\apifile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64376FEA-6C2E-4B46-BFD0-0B3F659051D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736430BF-9FD6-4974-8116-2C55C16BC337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="1650" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/camera/control</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -100,10 +96,6 @@
   </si>
   <si>
     <t>摄像头控制-焦距变小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/camera/grid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -133,50 +125,54 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>deviceId=720586611470512128&amp;controlType=right&amp;speed=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId=720586611470512128&amp;controlType=left&amp;speed=1</t>
-  </si>
-  <si>
-    <t>deviceId=720586611470512128&amp;controlType=up&amp;speed=1</t>
-  </si>
-  <si>
-    <t>deviceId=720586611470512128&amp;controlType=down&amp;speed=1</t>
-  </si>
-  <si>
-    <t>deviceId=720586611470512128&amp;controlType=upperLeft&amp;speed=1</t>
-  </si>
-  <si>
-    <t>deviceId=720586611470512128&amp;controlType=lowerLeft&amp;speed=1</t>
-  </si>
-  <si>
-    <t>deviceId=720586611470512128&amp;controlType=upperRight&amp;speed=1</t>
-  </si>
-  <si>
-    <t>deviceId=720586611470512128&amp;controlType=lowerRight&amp;speed=1</t>
-  </si>
-  <si>
-    <t>deviceId=720586611470512128&amp;controlType=magnify&amp;speed=1</t>
-  </si>
-  <si>
-    <t>deviceId=720586611470512128&amp;controlType=narrow&amp;speed=1</t>
-  </si>
-  <si>
-    <t>deviceId=720586611470512128&amp;controlType=nearly&amp;speed=1</t>
-  </si>
-  <si>
-    <t>deviceId=720586611470512128&amp;controlType=far&amp;speed=1</t>
-  </si>
-  <si>
-    <t>deviceId=720586611470512128&amp;controlType=stop&amp;speed=1</t>
+    <t>http://island.iot-cas.com:8081/island/camera/control</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/camera/grid</t>
+  </si>
+  <si>
+    <t>deviceId=730443964669968384&amp;controlType=right&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=730443964669968384&amp;controlType=left&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=730443964669968384&amp;controlType=up&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=730443964669968384&amp;controlType=down&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=730443964669968384&amp;controlType=upperLeft&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=730443964669968384&amp;controlType=lowerLeft&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=730443964669968384&amp;controlType=upperRight&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=730443964669968384&amp;controlType=lowerRight&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=730443964669968384&amp;controlType=magnify&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=730443964669968384&amp;controlType=narrow&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=730443964669968384&amp;controlType=nearly&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=730443964669968384&amp;controlType=far&amp;speed=1</t>
+  </si>
+  <si>
+    <t>deviceId=730443964669968384&amp;controlType=stop&amp;speed=1</t>
   </si>
   <si>
     <t>{
 	"gridMap": {
-		"0": "720586611470512128",
-		"1": "737377184941576192"
+		"0": "730443964669968384",
 	}
 }</t>
   </si>
@@ -543,14 +539,14 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.125" customWidth="1"/>
-    <col min="3" max="3" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="32.25" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
     <col min="6" max="6" width="62.75" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
   </cols>
@@ -583,10 +579,10 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -598,15 +594,15 @@
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -618,15 +614,15 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -638,15 +634,15 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
@@ -658,15 +654,15 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -680,10 +676,10 @@
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -697,10 +693,10 @@
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -714,10 +710,10 @@
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
@@ -731,10 +727,10 @@
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
@@ -746,15 +742,15 @@
         <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
@@ -766,15 +762,15 @@
         <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -786,15 +782,15 @@
         <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
@@ -806,15 +802,15 @@
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
@@ -828,30 +824,30 @@
     </row>
     <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4">
+        <v>200</v>
+      </c>
+      <c r="G15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4">
-        <v>200</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>39</v>
@@ -863,15 +859,15 @@
         <v>200</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
@@ -880,28 +876,28 @@
         <v>200</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{5B162966-A4EE-4C39-AAC2-2F273C7D115C}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{5470576E-D41E-4221-818A-01A24324D31B}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{EB6C7F35-FB0E-4673-9F63-4BE35A93A446}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{0D00C258-1BA8-4587-88F5-94C445634B12}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{2591C35F-E05A-40D4-A2F2-661B54CAFC4A}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{59873A98-C008-4134-B9AE-19A7F989F7EF}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{F78A53F0-BA88-466F-8ADE-E155450F53AC}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{865D8B28-B920-4BF2-989C-EAD109D8B091}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{7E55A3CA-6329-4E1C-B0A0-B5B9561360C8}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{3BD96A30-69D3-487F-A377-0390ED9C6A24}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{CD4C8FC1-86BE-4002-9D25-0F702891187C}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{550422D9-63CA-4DC0-AD26-97FD1D247AE0}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{FFB13902-17CB-401C-A43F-CC173907D7A2}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{148C61DE-BF5E-4370-80FB-4111AD5B3E7C}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{D3FEBE74-5BF0-4FEA-AB1A-155B84E2E94D}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{3E643CF9-7B2B-4292-9DAD-D03D20282EB4}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://island.dev.iot-cas.com:8081/island/camera/control" xr:uid="{5B162966-A4EE-4C39-AAC2-2F273C7D115C}"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://island.dev.iot-cas.com:8081/island/camera/control" xr:uid="{5470576E-D41E-4221-818A-01A24324D31B}"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://island.dev.iot-cas.com:8081/island/camera/control" xr:uid="{EB6C7F35-FB0E-4673-9F63-4BE35A93A446}"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://island.dev.iot-cas.com:8081/island/camera/control" xr:uid="{0D00C258-1BA8-4587-88F5-94C445634B12}"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://island.dev.iot-cas.com:8081/island/camera/control" xr:uid="{2591C35F-E05A-40D4-A2F2-661B54CAFC4A}"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://island.dev.iot-cas.com:8081/island/camera/control" xr:uid="{59873A98-C008-4134-B9AE-19A7F989F7EF}"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://island.dev.iot-cas.com:8081/island/camera/control" xr:uid="{F78A53F0-BA88-466F-8ADE-E155450F53AC}"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://island.dev.iot-cas.com:8081/island/camera/control" xr:uid="{865D8B28-B920-4BF2-989C-EAD109D8B091}"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://island.dev.iot-cas.com:8081/island/camera/control" xr:uid="{7E55A3CA-6329-4E1C-B0A0-B5B9561360C8}"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://island.dev.iot-cas.com:8081/island/camera/control" xr:uid="{3BD96A30-69D3-487F-A377-0390ED9C6A24}"/>
+    <hyperlink ref="A12" r:id="rId11" display="http://island.dev.iot-cas.com:8081/island/camera/control" xr:uid="{CD4C8FC1-86BE-4002-9D25-0F702891187C}"/>
+    <hyperlink ref="A13" r:id="rId12" display="http://island.dev.iot-cas.com:8081/island/camera/control" xr:uid="{550422D9-63CA-4DC0-AD26-97FD1D247AE0}"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://island.dev.iot-cas.com:8081/island/camera/control" xr:uid="{FFB13902-17CB-401C-A43F-CC173907D7A2}"/>
+    <hyperlink ref="A15" r:id="rId14" display="http://island.dev.iot-cas.com:8081/island/camera/grid" xr:uid="{148C61DE-BF5E-4370-80FB-4111AD5B3E7C}"/>
+    <hyperlink ref="A16" r:id="rId15" display="http://island.dev.iot-cas.com:8081/island/camera/grid" xr:uid="{D3FEBE74-5BF0-4FEA-AB1A-155B84E2E94D}"/>
+    <hyperlink ref="A17" r:id="rId16" display="http://island.dev.iot-cas.com:8081/island/camera/grid" xr:uid="{3E643CF9-7B2B-4292-9DAD-D03D20282EB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
